--- a/biology/Zoologie/Aphelolpium_longidigitatum/Aphelolpium_longidigitatum.xlsx
+++ b/biology/Zoologie/Aphelolpium_longidigitatum/Aphelolpium_longidigitatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aphelolpium longidigitatum est une espèce de pseudoscorpions de la famille des Hesperolpiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre aux îles Vierges des États-Unis, à Porto Rico, aux îles Caïmans, au Venezuela et aux îles Galápagos en Équateur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre aux îles Vierges des États-Unis, à Porto Rico, aux îles Caïmans, au Venezuela et aux îles Galápagos en Équateur.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype mesure 1,74 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype mesure 1,74 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Olpium longidigitatum par Ellingsen en 1910. Elle est placée dans le genre Apolpium par Beier en 1932[3] puis dans le genre Aphelolpium par Muchmore en 1993[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Olpium longidigitatum par Ellingsen en 1910. Elle est placée dans le genre Apolpium par Beier en 1932 puis dans le genre Aphelolpium par Muchmore en 1993.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ellingsen, 1910 : Die Pseudoskorpione des Berliner Museums. Mitteilung aus dem Zoologischen Museum in Berlin, vol. 4, p. 357-423 (texte intégral).</t>
         </is>
